--- a/TMTDentalAPI/ClientApp/src/assets/files/MauFileThuoc.xlsx
+++ b/TMTDentalAPI/ClientApp/src/assets/files/MauFileThuoc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GIGA\Documents\Projects\TDental\TMTDentalAPI\ClientApp\src\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I710700\Desktop\Source\TDental\TMTDentalAPI\ClientApp\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Tên thuốc</t>
   </si>
@@ -36,6 +36,15 @@
   </si>
   <si>
     <t>Thuốc giảm đau</t>
+  </si>
+  <si>
+    <t>Giá thuốc</t>
+  </si>
+  <si>
+    <t>Đơn vị mặc định</t>
+  </si>
+  <si>
+    <t>cái</t>
   </si>
 </sst>
 </file>
@@ -79,9 +88,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,32 +373,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/TMTDentalAPI/ClientApp/src/assets/files/MauFileThuoc.xlsx
+++ b/TMTDentalAPI/ClientApp/src/assets/files/MauFileThuoc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I710700\Desktop\Source\TDental\TMTDentalAPI\ClientApp\src\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TMT\source\repos\TDental\TMTDentalAPI\ClientApp\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Tên thuốc</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>cái</t>
+  </si>
+  <si>
+    <t>Mã thuốc</t>
   </si>
 </sst>
 </file>
@@ -373,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,9 +388,10 @@
     <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="2"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -400,8 +404,11 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>

--- a/TMTDentalAPI/ClientApp/src/assets/files/MauFileThuoc.xlsx
+++ b/TMTDentalAPI/ClientApp/src/assets/files/MauFileThuoc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Tên thuốc</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>cái</t>
-  </si>
-  <si>
-    <t>Mã thuốc</t>
   </si>
 </sst>
 </file>
@@ -376,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,10 +385,9 @@
     <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="2"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -404,11 +400,8 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>

--- a/TMTDentalAPI/ClientApp/src/assets/files/MauFileThuoc.xlsx
+++ b/TMTDentalAPI/ClientApp/src/assets/files/MauFileThuoc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TMT\source\repos\TDental\TMTDentalAPI\ClientApp\src\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonbui\source\repos\TDental\TMTDentalAPI\ClientApp\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Tên thuốc</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>cái</t>
+  </si>
+  <si>
+    <t>Mức tồn tối thiểu</t>
   </si>
 </sst>
 </file>
@@ -373,21 +376,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" style="2"/>
+    <col min="4" max="4" width="21.73046875" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -400,8 +404,11 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -413,6 +420,9 @@
       </c>
       <c r="D2" t="s">
         <v>6</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/TMTDentalAPI/ClientApp/src/assets/files/MauFileThuoc.xlsx
+++ b/TMTDentalAPI/ClientApp/src/assets/files/MauFileThuoc.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonbui\source\repos\TDental\TMTDentalAPI\ClientApp\src\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TDental\TMTDentalAPI\ClientApp\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B2B257-579D-4372-A5F5-E6C208B5FA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Tên thuốc</t>
   </si>
@@ -48,12 +49,15 @@
   </si>
   <si>
     <t>Mức tồn tối thiểu</t>
+  </si>
+  <si>
+    <t>Mã thuốc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -375,53 +379,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" style="2"/>
-    <col min="4" max="4" width="21.73046875" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="2"/>
+    <col min="5" max="5" width="21.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>100000</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>100</v>
       </c>
     </row>

--- a/TMTDentalAPI/ClientApp/src/assets/files/MauFileThuoc.xlsx
+++ b/TMTDentalAPI/ClientApp/src/assets/files/MauFileThuoc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TDental\TMTDentalAPI\ClientApp\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B2B257-579D-4372-A5F5-E6C208B5FA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D961A0-1854-4E8A-BDC1-9B693B808DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="458" yWindow="1139" windowWidth="24677" windowHeight="9844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -383,13 +383,13 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.109375" style="2"/>
     <col min="5" max="5" width="21.77734375" customWidth="1"/>
@@ -398,10 +398,10 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -417,7 +417,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">

--- a/TMTDentalAPI/ClientApp/src/assets/files/MauFileThuoc.xlsx
+++ b/TMTDentalAPI/ClientApp/src/assets/files/MauFileThuoc.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TDental\TMTDentalAPI\ClientApp\src\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\TMTDentalAPI\ClientApp\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D961A0-1854-4E8A-BDC1-9B693B808DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="458" yWindow="1139" windowWidth="24677" windowHeight="9844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="465" yWindow="1140" windowWidth="24675" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Tên thuốc</t>
   </si>
@@ -52,12 +51,18 @@
   </si>
   <si>
     <t>Mã thuốc</t>
+  </si>
+  <si>
+    <t>Xuất xứ</t>
+  </si>
+  <si>
+    <t>Thời hạn sử dụng (tháng)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -379,24 +384,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="2"/>
-    <col min="5" max="5" width="21.77734375" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -415,8 +422,14 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>

--- a/TMTDentalAPI/ClientApp/src/assets/files/MauFileThuoc.xlsx
+++ b/TMTDentalAPI/ClientApp/src/assets/files/MauFileThuoc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\TMTDentalAPI\ClientApp\src\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GIGA\Documents\Projects\TDental\TMTDentalAPI\ClientApp\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Tên thuốc</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Thời hạn sử dụng (tháng)</t>
+  </si>
+  <si>
+    <t>Anh</t>
   </si>
 </sst>
 </file>
@@ -388,7 +391,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,10 +408,10 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -430,7 +433,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
@@ -444,6 +447,12 @@
       </c>
       <c r="F2">
         <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
